--- a/!13. Экономика программной инженерии/Excel.xlsx
+++ b/!13. Экономика программной инженерии/Excel.xlsx
@@ -8,34 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Desktop\Задания\!13. Экономика программной инженерии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A41B16F-9B0F-4C81-84D6-AEAA2D1E2894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D6792-E415-420D-B742-68362CF55B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1410" windowWidth="23400" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$B$24:$C$24</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$L$77:$O$79</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$F$19:$F$21</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$L$77:$O$79</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$L$77:$O$79</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$L$80:$O$80</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$P$77:$P$79</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$F$24</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$J$87</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$19:$D$21</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">целое</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$L$71:$O$71</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$P$68:$P$70</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -63,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Задача 1</t>
   </si>
@@ -96,18 +105,98 @@
   </si>
   <si>
     <t>Решение</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Запасы</t>
+  </si>
+  <si>
+    <t>Потребности</t>
+  </si>
+  <si>
+    <t>3 [500]</t>
+  </si>
+  <si>
+    <t>4 [100]</t>
+  </si>
+  <si>
+    <t>5 [50]</t>
+  </si>
+  <si>
+    <t>4 [250]</t>
+  </si>
+  <si>
+    <t>9 (4)</t>
+  </si>
+  <si>
+    <t>5 [100]</t>
+  </si>
+  <si>
+    <t>10[100]</t>
+  </si>
+  <si>
+    <t>10 (5)</t>
+  </si>
+  <si>
+    <t>5 (9)</t>
+  </si>
+  <si>
+    <t>6 (6)</t>
+  </si>
+  <si>
+    <t>12 (3)</t>
+  </si>
+  <si>
+    <t>10 (6)</t>
+  </si>
+  <si>
+    <t>6 (7)</t>
+  </si>
+  <si>
+    <t>12 (2)</t>
+  </si>
+  <si>
+    <t>7 (7)</t>
+  </si>
+  <si>
+    <t>6 (1)</t>
+  </si>
+  <si>
+    <t>5 [150]</t>
+  </si>
+  <si>
+    <t>4 (4)</t>
+  </si>
+  <si>
+    <t>7 (4)</t>
+  </si>
+  <si>
+    <t>6 (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,8 +222,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,27 +285,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,58 +646,126 @@
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="6">
         <f>EFFECT(0.09,4)</f>
         <v>9.3083318789062286E-2</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>4</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="12">
+        <v>600</v>
+      </c>
+      <c r="P17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="10">
+        <v>2</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="12">
+        <v>150</v>
+      </c>
+      <c r="P18" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6">
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
         <v>20</v>
       </c>
       <c r="E19" s="1"/>
@@ -550,18 +773,39 @@
         <f>$B$24*B19+$C$24*C19</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="10">
+        <v>3</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="12">
+        <v>250</v>
+      </c>
+      <c r="P19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>8</v>
       </c>
       <c r="E20" s="1"/>
@@ -569,18 +813,35 @@
         <f>$B$24*B20+$C$24*C20</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="12">
+        <v>500</v>
+      </c>
+      <c r="L20" s="12">
+        <v>250</v>
+      </c>
+      <c r="M20" s="12">
+        <v>150</v>
+      </c>
+      <c r="N20" s="12">
+        <v>100</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>10</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>60</v>
       </c>
       <c r="E21" s="1"/>
@@ -588,22 +849,39 @@
         <f>$B$24*B21+$C$24*C21</f>
         <v>60.000000000000007</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="J21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>5</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>5</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -611,7 +889,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -621,14 +899,617 @@
       <c r="C24" s="3">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="3">
         <f>B24*B22+C24*C22</f>
         <v>50</v>
       </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>2</v>
+      </c>
+      <c r="M26" s="10">
+        <v>3</v>
+      </c>
+      <c r="N26" s="10">
+        <v>4</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O27" s="12">
+        <v>600</v>
+      </c>
+      <c r="P27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J28" s="10">
+        <v>2</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="12">
+        <v>150</v>
+      </c>
+      <c r="P28" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J29" s="10">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="12">
+        <v>250</v>
+      </c>
+      <c r="P29" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="12">
+        <v>500</v>
+      </c>
+      <c r="L30" s="12">
+        <v>250</v>
+      </c>
+      <c r="M30" s="12">
+        <v>150</v>
+      </c>
+      <c r="N30" s="12">
+        <v>100</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="9">
+        <v>2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>5</v>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J32" s="15"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="10:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J33" s="15"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="10:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="10:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="10:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10">
+        <v>2</v>
+      </c>
+      <c r="M37" s="10">
+        <v>3</v>
+      </c>
+      <c r="N37" s="10">
+        <v>4</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="10:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="12">
+        <v>600</v>
+      </c>
+      <c r="P38" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="10:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J39" s="10">
+        <v>2</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="12">
+        <v>150</v>
+      </c>
+      <c r="P39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="10:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J40" s="10">
+        <v>3</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O40" s="12">
+        <v>250</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="10:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="J41" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="12">
+        <v>500</v>
+      </c>
+      <c r="L41" s="12">
+        <v>250</v>
+      </c>
+      <c r="M41" s="12">
+        <v>150</v>
+      </c>
+      <c r="N41" s="12">
+        <v>100</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J42" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1</v>
+      </c>
+      <c r="L42" s="9">
+        <v>3</v>
+      </c>
+      <c r="M42" s="9">
+        <v>2</v>
+      </c>
+      <c r="N42" s="9">
+        <v>3</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="10:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="15"/>
+    </row>
+    <row r="44" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+    </row>
+    <row r="45" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="67" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K67" s="9"/>
+      <c r="L67" s="10">
+        <v>1</v>
+      </c>
+      <c r="M67" s="10">
+        <v>2</v>
+      </c>
+      <c r="N67" s="10">
+        <v>3</v>
+      </c>
+      <c r="O67" s="10">
+        <v>4</v>
+      </c>
+      <c r="P67" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q67" s="19"/>
+    </row>
+    <row r="68" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K68" s="10">
+        <v>1</v>
+      </c>
+      <c r="L68" s="25">
+        <v>3</v>
+      </c>
+      <c r="M68" s="25">
+        <v>10</v>
+      </c>
+      <c r="N68" s="25">
+        <v>4</v>
+      </c>
+      <c r="O68" s="25">
+        <v>5</v>
+      </c>
+      <c r="P68" s="12">
+        <v>600</v>
+      </c>
+      <c r="Q68" s="20"/>
+    </row>
+    <row r="69" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K69" s="10">
+        <v>2</v>
+      </c>
+      <c r="L69" s="25">
+        <v>9</v>
+      </c>
+      <c r="M69" s="25">
+        <v>6</v>
+      </c>
+      <c r="N69" s="25">
+        <v>5</v>
+      </c>
+      <c r="O69" s="25">
+        <v>10</v>
+      </c>
+      <c r="P69" s="12">
+        <v>150</v>
+      </c>
+      <c r="Q69" s="20"/>
+    </row>
+    <row r="70" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K70" s="10">
+        <v>3</v>
+      </c>
+      <c r="L70" s="25">
+        <v>6</v>
+      </c>
+      <c r="M70" s="25">
+        <v>4</v>
+      </c>
+      <c r="N70" s="25">
+        <v>12</v>
+      </c>
+      <c r="O70" s="25">
+        <v>7</v>
+      </c>
+      <c r="P70" s="12">
+        <v>250</v>
+      </c>
+      <c r="Q70" s="20"/>
+    </row>
+    <row r="71" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="12">
+        <v>500</v>
+      </c>
+      <c r="M71" s="12">
+        <v>250</v>
+      </c>
+      <c r="N71" s="12">
+        <v>150</v>
+      </c>
+      <c r="O71" s="12">
+        <v>100</v>
+      </c>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="20"/>
+    </row>
+    <row r="72" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K72" s="19"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+    </row>
+    <row r="73" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K73" s="15"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K74" s="15"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="11:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K75" s="16"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K76" s="9"/>
+      <c r="L76" s="10">
+        <v>1</v>
+      </c>
+      <c r="M76" s="10">
+        <v>2</v>
+      </c>
+      <c r="N76" s="10">
+        <v>3</v>
+      </c>
+      <c r="O76" s="10">
+        <v>4</v>
+      </c>
+      <c r="P76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K77" s="10">
+        <v>1</v>
+      </c>
+      <c r="L77" s="25">
+        <v>500</v>
+      </c>
+      <c r="M77" s="25">
+        <v>0</v>
+      </c>
+      <c r="N77" s="25">
+        <v>0</v>
+      </c>
+      <c r="O77" s="25">
+        <v>100</v>
+      </c>
+      <c r="P77" s="12">
+        <f>SUM(L77:O77)</f>
+        <v>600</v>
+      </c>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K78" s="10">
+        <v>2</v>
+      </c>
+      <c r="L78" s="25">
+        <v>0</v>
+      </c>
+      <c r="M78" s="25">
+        <v>0</v>
+      </c>
+      <c r="N78" s="25">
+        <v>150</v>
+      </c>
+      <c r="O78" s="25">
+        <v>0</v>
+      </c>
+      <c r="P78" s="12">
+        <f t="shared" ref="P78:P79" si="0">SUM(L78:O78)</f>
+        <v>150</v>
+      </c>
+      <c r="Q78" s="19"/>
+    </row>
+    <row r="79" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K79" s="10">
+        <v>3</v>
+      </c>
+      <c r="L79" s="25">
+        <v>0</v>
+      </c>
+      <c r="M79" s="25">
+        <v>250</v>
+      </c>
+      <c r="N79" s="25">
+        <v>0</v>
+      </c>
+      <c r="O79" s="25">
+        <v>0</v>
+      </c>
+      <c r="P79" s="12">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="Q79" s="20"/>
+    </row>
+    <row r="80" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K80" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="12">
+        <f>SUM(L77:L79)</f>
+        <v>500</v>
+      </c>
+      <c r="M80" s="12">
+        <f t="shared" ref="M80:O80" si="1">SUM(M77:M79)</f>
+        <v>250</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="O80" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="P80" s="24">
+        <f>SUMPRODUCT(L68:O70,L77:O79)</f>
+        <v>3750</v>
+      </c>
+      <c r="Q80" s="20"/>
+    </row>
+    <row r="81" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K81" s="19"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="20"/>
+    </row>
+    <row r="82" spans="11:17" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="20"/>
+    </row>
+    <row r="83" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K83" s="19"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
